--- a/biology/Botanique/Chêne_de_Mendaza/Chêne_de_Mendaza.xlsx
+++ b/biology/Botanique/Chêne_de_Mendaza/Chêne_de_Mendaza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Mendaza</t>
+          <t>Chêne_de_Mendaza</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Chêne de Mendaza ou Chêne aux Trois Pieds de Mendaza est un des arbres les plus vieux d'Espagne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Mendaza</t>
+          <t>Chêne_de_Mendaza</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la chênaie qui se trouve sur les flancs est de la montagne de Dos Hermanas appartenant à la commune de Mendaza, vallée de la Berrueza, Communauté forale de Navarre.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Mendaza</t>
+          <t>Chêne_de_Mendaza</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il appartient à l’espèce de chêne Quercus ilex (dit Chêne vert ou Yeuse).
 Périmètre : 7,70 m
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Mendaza</t>
+          <t>Chêne_de_Mendaza</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Âge</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a environ 1 200 ans. Il est considéré comme le second arbre le plus vieux d'Espagne.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Mendaza</t>
+          <t>Chêne_de_Mendaza</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il montre un état excellent et une vitalité, rien de commun parmi les arbres de grand âge, bien qu'il soit ceint par des sangles métalliques, pour éviter le risque d'ouverture.
 </t>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Mendaza</t>
+          <t>Chêne_de_Mendaza</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1991 : Intègre dans le Catalogue des Arbres Monuments de Navarre.
 2007 : Prix national de l'arbre longévité dans la première édition du prix Arbre et Forêt de l'Année instituée par le Ministère de l'Environnement et l'Association Forêts sans Frontière.</t>
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Mendaza</t>
+          <t>Chêne_de_Mendaza</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +693,9 @@
           <t>Visites</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">On traverse la localité de Mendaza, en montée, et on prend le chemin de l'ermitage de Sainte Coloma. Le chemin traverse une infraction rocheuse qui mène à la face est de la montagne, La Laguna. Le chemin tourne à gauche et immédiatement encore à gauche pour monter à l'ermitage qui domine la montagne des Dos Hermanas. Avant de tourner dans cette dernière courbe, à sa droite, au milieu d'une petite prairie, croît le chêne des Trois Pieds.
 </t>
@@ -684,7 +708,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Mendaza</t>
+          <t>Chêne_de_Mendaza</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -702,7 +726,9 @@
           <t>Environ</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'endroit est d'une grande beauté avec une lagune dans une chênaie magnifique qui contient beaucoup d'autres exemplaires qui dépassent les 500 ans.
 </t>
